--- a/2023-04-18/Agenda.xlsx
+++ b/2023-04-18/Agenda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iot\seminare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\HomeAssistant\sperlhof\2023-04-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C60A45-1A68-4EEF-99B0-22EEB49EBF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9436FB5D-E29B-4C53-A96B-E2C0130BAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -509,6 +516,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1410,7 +1418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC3FD68-BD09-4EA6-92E3-A5AF8B4A0BB1}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1434,7 +1444,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
@@ -1448,7 +1458,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B3" t="s">
@@ -1462,7 +1472,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B4" t="s">
@@ -1470,7 +1480,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1501,7 +1511,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1511,7 +1521,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
@@ -1535,7 +1545,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>119</v>
       </c>
     </row>
